--- a/ROSTER2.xlsx
+++ b/ROSTER2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="516">
   <si>
     <t>Documento</t>
   </si>
@@ -1105,9 +1105,6 @@
   </si>
   <si>
     <t>Test Cc Mexico Sup L1</t>
-  </si>
-  <si>
-    <t>Idontknow</t>
   </si>
   <si>
     <t>Tuyo Isaza</t>
@@ -2145,8 +2142,8 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2166,16 +2163,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2202,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -2228,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
@@ -2353,7 +2350,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>30</v>
@@ -2414,7 +2411,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -2450,7 +2447,7 @@
         <v>32</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>35</v>
@@ -2473,7 +2470,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>17</v>
@@ -2511,7 +2508,7 @@
         <v>32</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>41</v>
@@ -2569,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="3">
         <v>296</v>
@@ -2592,7 +2589,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>17</v>
@@ -2628,7 +2625,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>50</v>
@@ -2651,7 +2648,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>30</v>
@@ -2715,7 +2712,7 @@
         <v>59</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>60</v>
@@ -2753,7 +2750,7 @@
         <v>32</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>61</v>
@@ -2776,7 +2773,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>17</v>
@@ -2840,7 +2837,7 @@
         <v>72</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
@@ -2878,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>77</v>
@@ -2901,7 +2898,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>80</v>
@@ -2937,7 +2934,7 @@
         <v>32</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>82</v>
@@ -2996,7 +2993,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q14" s="3">
         <v>281</v>
@@ -3055,7 +3052,7 @@
         <v>32</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q15" s="3">
         <v>282</v>
@@ -3078,7 +3075,7 @@
         <v>95</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>30</v>
@@ -3140,7 +3137,7 @@
         <v>101</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>17</v>
@@ -3240,7 +3237,7 @@
         <v>32</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q18" s="4">
         <v>156</v>
@@ -3263,7 +3260,7 @@
         <v>114</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>115</v>
@@ -3299,7 +3296,7 @@
         <v>32</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>114</v>
@@ -3386,7 +3383,7 @@
         <v>122</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
@@ -3409,7 +3406,7 @@
         <v>556</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L21" s="3">
         <v>558</v>
@@ -3424,7 +3421,7 @@
         <v>32</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q21" s="4">
         <v>562</v>
@@ -3447,7 +3444,7 @@
         <v>126</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>17</v>
@@ -3485,7 +3482,7 @@
         <v>32</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>127</v>
@@ -3508,7 +3505,7 @@
         <v>132</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
@@ -3544,7 +3541,7 @@
         <v>32</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>136</v>
@@ -3567,7 +3564,7 @@
         <v>138</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>30</v>
@@ -3605,7 +3602,7 @@
         <v>32</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>139</v>
@@ -3628,7 +3625,7 @@
         <v>143</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>80</v>
@@ -3666,7 +3663,7 @@
         <v>32</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>147</v>
@@ -3725,7 +3722,7 @@
         <v>32</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>153</v>
@@ -3748,7 +3745,7 @@
         <v>156</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>80</v>
@@ -3786,7 +3783,7 @@
         <v>32</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q27" s="4" t="s">
         <v>154</v>
@@ -3809,7 +3806,7 @@
         <v>163</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>30</v>
@@ -3845,7 +3842,7 @@
         <v>32</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>161</v>
@@ -3868,7 +3865,7 @@
         <v>168</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>17</v>
@@ -3904,7 +3901,7 @@
         <v>32</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q29" s="4" t="s">
         <v>168</v>
@@ -3927,7 +3924,7 @@
         <v>174</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>30</v>
@@ -3963,7 +3960,7 @@
         <v>32</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>175</v>
@@ -3986,7 +3983,7 @@
         <v>179</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>30</v>
@@ -4022,7 +4019,7 @@
         <v>32</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>185</v>
@@ -4105,7 +4102,7 @@
         <v>189</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>17</v>
@@ -4167,7 +4164,7 @@
         <v>194</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>17</v>
@@ -4203,7 +4200,7 @@
         <v>32</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>195</v>
@@ -4226,7 +4223,7 @@
         <v>201</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>80</v>
@@ -4262,7 +4259,7 @@
         <v>32</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>202</v>
@@ -4285,7 +4282,7 @@
         <v>205</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>17</v>
@@ -4383,7 +4380,7 @@
         <v>32</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q37" s="3">
         <v>283</v>
@@ -4501,7 +4498,7 @@
         <v>32</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q39" s="3">
         <v>284</v>
@@ -4524,7 +4521,7 @@
         <v>219</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>80</v>
@@ -4559,7 +4556,7 @@
         <v>32</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>220</v>
@@ -4582,7 +4579,7 @@
         <v>225</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>30</v>
@@ -4680,7 +4677,7 @@
         <v>32</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q42" s="3">
         <v>285</v>
@@ -4703,7 +4700,7 @@
         <v>233</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>30</v>
@@ -4739,7 +4736,7 @@
         <v>32</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>236</v>
@@ -4762,7 +4759,7 @@
         <v>238</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>17</v>
@@ -4826,7 +4823,7 @@
         <v>243</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>17</v>
@@ -4862,7 +4859,7 @@
         <v>32</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>243</v>
@@ -4885,7 +4882,7 @@
         <v>249</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>60</v>
@@ -4921,7 +4918,7 @@
         <v>32</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>249</v>
@@ -4980,7 +4977,7 @@
         <v>32</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q47" s="3">
         <v>304</v>
@@ -5003,7 +5000,7 @@
         <v>256</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>17</v>
@@ -5067,7 +5064,7 @@
         <v>262</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>30</v>
@@ -5103,7 +5100,7 @@
         <v>32</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>266</v>
@@ -5126,7 +5123,7 @@
         <v>268</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>17</v>
@@ -5162,7 +5159,7 @@
         <v>32</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>269</v>
@@ -5185,7 +5182,7 @@
         <v>275</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>115</v>
@@ -5221,7 +5218,7 @@
         <v>32</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>275</v>
@@ -5244,7 +5241,7 @@
         <v>277</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>115</v>
@@ -5280,7 +5277,7 @@
         <v>32</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>277</v>
@@ -5303,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>30</v>
@@ -5339,7 +5336,7 @@
         <v>32</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>284</v>
@@ -5362,7 +5359,7 @@
         <v>287</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>30</v>
@@ -5385,7 +5382,7 @@
         <v>544</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L54" s="5">
         <v>546</v>
@@ -5400,7 +5397,7 @@
         <v>32</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q54" s="5">
         <v>550</v>
@@ -5423,7 +5420,7 @@
         <v>290</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>17</v>
@@ -5581,7 +5578,7 @@
         <v>32</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q57" s="4">
         <v>160</v>
@@ -5639,7 +5636,7 @@
         <v>32</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q58" s="4">
         <v>161</v>
@@ -5662,7 +5659,7 @@
         <v>299</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>80</v>
@@ -5698,7 +5695,7 @@
         <v>32</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q59" s="4" t="s">
         <v>300</v>
@@ -5721,7 +5718,7 @@
         <v>303</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>17</v>
@@ -5781,7 +5778,7 @@
         <v>306</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>80</v>
@@ -5879,7 +5876,7 @@
         <v>32</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q62" s="3">
         <v>287</v>
@@ -5902,7 +5899,7 @@
         <v>316</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>17</v>
@@ -5940,7 +5937,7 @@
         <v>32</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q63" s="4" t="s">
         <v>321</v>
@@ -5999,7 +5996,7 @@
         <v>32</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q64" s="3">
         <v>288</v>
@@ -6022,7 +6019,7 @@
         <v>328</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>30</v>
@@ -6080,13 +6077,13 @@
     </row>
     <row r="66" spans="1:20" s="3" customFormat="1">
       <c r="A66" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>80</v>
@@ -6098,10 +6095,10 @@
         <v>45820</v>
       </c>
       <c r="G66" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="H66" s="14" t="s">
         <v>509</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>510</v>
       </c>
       <c r="I66" s="4">
         <v>565</v>
@@ -6330,7 +6327,7 @@
         <v>342</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>115</v>
@@ -6366,7 +6363,7 @@
         <v>32</v>
       </c>
       <c r="P70" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>342</v>
@@ -6389,7 +6386,7 @@
         <v>344</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>80</v>
@@ -6427,7 +6424,7 @@
         <v>32</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q71" s="4" t="s">
         <v>345</v>
@@ -6450,7 +6447,7 @@
         <v>349</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>17</v>
@@ -6486,7 +6483,7 @@
         <v>32</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q72" s="4" t="s">
         <v>350</v>
@@ -6683,10 +6680,10 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>187</v>
@@ -6699,10 +6696,10 @@
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="I76" s="3">
         <v>464</v>
@@ -6726,7 +6723,7 @@
         <v>32</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q76" s="4">
         <v>471</v>
@@ -6743,10 +6740,10 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>91</v>
@@ -6760,10 +6757,10 @@
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H77" s="19" t="s">
         <v>364</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="I77" s="3">
         <v>235</v>
@@ -6785,13 +6782,13 @@
         <v>32</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q77" s="3">
         <v>297</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S77" s="4">
         <v>393</v>
@@ -6802,13 +6799,13 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="C78" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>17</v>
@@ -6819,37 +6816,37 @@
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H78" s="20">
         <v>450</v>
       </c>
       <c r="I78" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="K78" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="L78" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="L78" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="M78" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R78" s="3">
         <v>194</v>
@@ -6858,18 +6855,18 @@
         <v>394</v>
       </c>
       <c r="T78" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="C79" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>17</v>
@@ -6883,10 +6880,10 @@
         <v>45785</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I79" s="3">
         <v>96</v>
@@ -6911,10 +6908,10 @@
         <v>19</v>
       </c>
       <c r="Q79" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="R79" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="R79" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="S79" s="4">
         <v>407</v>
@@ -6970,18 +6967,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>455</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2" s="38">
         <v>45026</v>
@@ -6992,7 +6989,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B3" s="38">
         <v>44714</v>
@@ -7003,7 +7000,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" s="38">
         <v>44722</v>
@@ -7014,7 +7011,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" s="38">
         <v>45008</v>
@@ -7025,7 +7022,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B6" s="38">
         <v>44556</v>
@@ -7036,7 +7033,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B7" s="38">
         <v>45028</v>
@@ -7047,7 +7044,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" s="38">
         <v>45028</v>
@@ -7058,7 +7055,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B9" s="38">
         <v>45034</v>
@@ -7069,7 +7066,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B10" s="38">
         <v>45028</v>
@@ -7080,7 +7077,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B11" s="38">
         <v>45028</v>
@@ -7091,7 +7088,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B12" s="38">
         <v>45066</v>
@@ -7102,7 +7099,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B13" s="38">
         <v>45083</v>
@@ -7113,7 +7110,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" s="38">
         <v>45028</v>
@@ -7124,7 +7121,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B15" s="38">
         <v>45028</v>
@@ -7135,7 +7132,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B16" s="38">
         <v>45028</v>
@@ -7146,7 +7143,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17" s="38">
         <v>45082</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B18" s="38">
         <v>45028</v>
@@ -7168,7 +7165,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B19" s="38">
         <v>45082</v>
@@ -7179,7 +7176,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B20" s="38">
         <v>45082</v>
@@ -7190,7 +7187,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="38">
         <v>45117</v>
@@ -7201,7 +7198,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" s="38">
         <v>45082</v>
@@ -7212,7 +7209,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B23" s="38">
         <v>45124</v>
@@ -7223,7 +7220,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" s="38">
         <v>45082</v>
@@ -7234,7 +7231,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" s="38">
         <v>45154</v>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B26" s="38">
         <v>45117</v>
@@ -7256,7 +7253,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B27" s="38">
         <v>44554</v>
@@ -7267,7 +7264,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B28" s="38">
         <v>44607</v>
@@ -7278,7 +7275,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B29" s="38">
         <v>44614</v>
@@ -7289,7 +7286,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B30" s="38">
         <v>45139</v>
@@ -7300,7 +7297,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B31" s="38">
         <v>45176</v>
@@ -7311,7 +7308,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B32" s="38">
         <v>45145</v>
@@ -7322,7 +7319,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B33" s="38">
         <v>45145</v>
@@ -7333,7 +7330,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B34" s="38">
         <v>45141</v>
@@ -7344,7 +7341,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B35" s="38">
         <v>45212</v>
@@ -7355,7 +7352,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B36" s="38">
         <v>45145</v>
@@ -7366,7 +7363,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B37" s="38">
         <v>45202</v>
@@ -7377,7 +7374,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B38" s="38">
         <v>45212</v>
@@ -7388,7 +7385,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B39" s="38">
         <v>45271</v>
@@ -7399,7 +7396,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B40" s="38">
         <v>45271</v>
@@ -7410,7 +7407,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B41" s="38">
         <v>45212</v>
@@ -7421,7 +7418,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B42" s="38">
         <v>45110</v>
@@ -7432,7 +7429,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B43" s="38">
         <v>45271</v>
@@ -7443,7 +7440,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B44" s="38">
         <v>45301</v>
@@ -7454,7 +7451,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B45" s="38">
         <v>45350</v>
@@ -7465,7 +7462,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B46" s="38">
         <v>45271</v>
@@ -7476,7 +7473,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B47" s="38">
         <v>44555</v>
@@ -7487,7 +7484,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B48" s="38">
         <v>45131</v>
@@ -7498,7 +7495,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B49" s="38">
         <v>45068</v>
@@ -7509,7 +7506,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B50" s="38">
         <v>45068</v>
@@ -7520,7 +7517,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B51" s="38">
         <v>45238</v>
@@ -7531,7 +7528,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B52" s="38">
         <v>45271</v>
@@ -7542,7 +7539,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B53" s="38">
         <v>45272</v>
@@ -7553,7 +7550,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B54" s="38">
         <v>45301</v>
@@ -7564,7 +7561,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B55" s="38">
         <v>44479</v>
@@ -7575,7 +7572,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B56" s="38">
         <v>45301</v>
@@ -7586,7 +7583,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B57" s="38">
         <v>45350</v>
@@ -7597,7 +7594,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B58" s="38">
         <v>45301</v>
@@ -7608,7 +7605,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B59" s="38">
         <v>45124</v>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B60" s="38">
         <v>45212</v>
@@ -7630,123 +7627,123 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" s="38">
         <v>45544</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B62" s="38">
         <v>44291</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B63" s="38">
         <v>44445</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" s="38">
         <v>44445</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B65" s="38">
         <v>44348</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B66" s="38">
         <v>44445</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B67" s="38">
         <v>44452</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B68" s="38">
         <v>44258</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B69" s="38">
         <v>44452</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B70" s="38">
         <v>44452</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B71" s="38">
         <v>44445</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7757,7 +7754,7 @@
         <v>45271</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7768,15 +7765,15 @@
         <v>45621</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C74" s="38">
         <v>45670</v>
@@ -7787,7 +7784,7 @@
         <v>117</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C75" s="38">
         <v>45719</v>
@@ -7795,10 +7792,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C76" s="38">
         <v>45785</v>
@@ -7806,10 +7803,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C77" s="38">
         <v>45758</v>
@@ -7820,7 +7817,7 @@
         <v>224</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C78" s="38">
         <v>45785</v>
@@ -7831,18 +7828,18 @@
         <v>242</v>
       </c>
       <c r="B79" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C79" s="38" t="s">
         <v>463</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C80" s="38">
         <v>45820</v>
@@ -7853,21 +7850,21 @@
         <v>228</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7875,10 +7872,10 @@
         <v>209</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7886,10 +7883,10 @@
         <v>251</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7897,10 +7894,10 @@
         <v>310</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7908,7 +7905,7 @@
         <v>292</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C86" s="38">
         <v>45900</v>
@@ -7916,13 +7913,13 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7930,10 +7927,10 @@
         <v>274</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7941,10 +7938,10 @@
         <v>276</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7952,10 +7949,10 @@
         <v>298</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7963,10 +7960,10 @@
         <v>39</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7974,7 +7971,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C92" s="38">
         <v>45708</v>
@@ -7985,10 +7982,10 @@
         <v>200</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7996,10 +7993,10 @@
         <v>78</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -8007,7 +8004,7 @@
         <v>237</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C95" s="38">
         <v>45708</v>
@@ -8018,10 +8015,10 @@
         <v>125</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -8029,10 +8026,10 @@
         <v>248</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -8040,21 +8037,21 @@
         <v>341</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -8062,10 +8059,10 @@
         <v>21</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -8073,10 +8070,10 @@
         <v>113</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -8084,7 +8081,7 @@
         <v>204</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C102" s="38">
         <v>45708</v>
@@ -8095,10 +8092,10 @@
         <v>155</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -8106,10 +8103,10 @@
         <v>58</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -8117,10 +8114,10 @@
         <v>315</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -8128,10 +8125,10 @@
         <v>343</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -8139,10 +8136,10 @@
         <v>89</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -8150,10 +8147,10 @@
         <v>142</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -8161,7 +8158,7 @@
         <v>188</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C109" s="38">
         <v>45844</v>
@@ -8169,10 +8166,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C110" s="38">
         <v>45708</v>
@@ -8183,7 +8180,7 @@
         <v>94</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C111" s="38">
         <v>45888</v>
@@ -8194,10 +8191,10 @@
         <v>149</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -8205,7 +8202,7 @@
         <v>100</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C113" s="38">
         <v>45708</v>
@@ -8216,10 +8213,10 @@
         <v>131</v>
       </c>
       <c r="B114" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -8227,10 +8224,10 @@
         <v>232</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -8238,10 +8235,10 @@
         <v>162</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -8249,10 +8246,10 @@
         <v>71</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -8260,7 +8257,7 @@
         <v>305</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C118" s="38">
         <v>45930</v>
@@ -8271,10 +8268,10 @@
         <v>173</v>
       </c>
       <c r="B119" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -8282,7 +8279,7 @@
         <v>63</v>
       </c>
       <c r="B120" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C120" s="38">
         <v>45945</v>
@@ -8293,10 +8290,10 @@
         <v>278</v>
       </c>
       <c r="B121" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -8304,10 +8301,10 @@
         <v>105</v>
       </c>
       <c r="B122" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -8315,10 +8312,10 @@
         <v>84</v>
       </c>
       <c r="B123" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -8326,10 +8323,10 @@
         <v>261</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -8337,10 +8334,10 @@
         <v>178</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -8348,32 +8345,32 @@
         <v>322</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -8381,10 +8378,10 @@
         <v>167</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -8392,10 +8389,10 @@
         <v>214</v>
       </c>
       <c r="B130" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -8403,10 +8400,10 @@
         <v>348</v>
       </c>
       <c r="B131" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C131" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -8414,10 +8411,10 @@
         <v>48</v>
       </c>
       <c r="B132" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C132" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -8425,7 +8422,7 @@
         <v>15</v>
       </c>
       <c r="B133" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C133" s="38">
         <v>45835</v>
@@ -8436,10 +8433,10 @@
         <v>193</v>
       </c>
       <c r="B134" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C134" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -8447,7 +8444,7 @@
         <v>327</v>
       </c>
       <c r="B135" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C135" s="38">
         <v>45945</v>
@@ -8458,10 +8455,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C136" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -8469,7 +8466,7 @@
         <v>52</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C137" s="38">
         <v>45945</v>
@@ -8480,10 +8477,10 @@
         <v>267</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C138" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -8491,10 +8488,10 @@
         <v>33</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -8502,10 +8499,10 @@
         <v>218</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -8513,10 +8510,10 @@
         <v>286</v>
       </c>
       <c r="B141" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C141" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -8524,10 +8521,10 @@
         <v>121</v>
       </c>
       <c r="B142" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C142" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:3">

--- a/ROSTER2.xlsx
+++ b/ROSTER2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="517">
   <si>
     <t>Documento</t>
   </si>
@@ -1576,6 +1576,9 @@
   </si>
   <si>
     <t>Directivo</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -2142,8 +2145,8 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2390,7 +2393,7 @@
       <c r="P4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="21">
         <v>169</v>
       </c>
       <c r="R4" s="4">
@@ -2566,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q7" s="3">
         <v>296</v>
